--- a/OBE.xlsx
+++ b/OBE.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\OBE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{633FEBE6-4FD2-43E2-AAE9-CB91F2831CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB64341-365E-44CB-8B40-AF68BFD1B12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OBE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -59,12 +59,15 @@
   </si>
   <si>
     <t>Jacky Chan</t>
+  </si>
+  <si>
+    <t>Cindy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,7 +229,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +407,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -597,9 +606,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -608,6 +614,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -963,8 +972,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -973,169 +982,197 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>46</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>18</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>14</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f>SUM(C2:E2)</f>
         <v>72</v>
       </c>
-      <c r="H2" s="4" t="str">
+      <c r="H2" s="3" t="str">
         <f>IF(G2&gt;=80,"A",IF(G2&gt;=75,"B+",IF(G2&gt;=70,"B",IF(G2&gt;=65,"C+",IF(G2&gt;=60,"C",IF(G2&gt;=55,"D+",IF(G2&gt;=50,"D","F")))))))</f>
         <v>B</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>26</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>6</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>15</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>SUM(C3:F3)</f>
         <v>62</v>
       </c>
-      <c r="H3" s="4" t="str">
+      <c r="H3" s="3" t="str">
         <f t="shared" ref="H3:H6" si="0">IF(G3&gt;=80,"A",IF(G3&gt;=75,"B+",IF(G3&gt;=70,"B",IF(G3&gt;=65,"C+",IF(G3&gt;=60,"C",IF(G3&gt;=55,"D+",IF(G3&gt;=50,"D","F")))))))</f>
         <v>C</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>38</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>16</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>17</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>SUM(C4:F4)</f>
         <v>78</v>
       </c>
-      <c r="H4" s="4" t="str">
+      <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>B+</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>48</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>17</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>19</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f>SUM(C5:F5)</f>
         <v>94</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>40</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>16</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>15</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f>SUM(C6:F6)</f>
         <v>81</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>36</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3">
+        <f>SUM(C7:F7)</f>
+        <v>71</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" ref="H7" si="1">IF(G7&gt;=80,"A",IF(G7&gt;=75,"B+",IF(G7&gt;=70,"B",IF(G7&gt;=65,"C+",IF(G7&gt;=60,"C",IF(G7&gt;=55,"D+",IF(G7&gt;=50,"D","F")))))))</f>
+        <v>B</v>
       </c>
     </row>
   </sheetData>
